--- a/HW5/output/results.xlsx
+++ b/HW5/output/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathantan/Desktop/ML/capp30254/HW5/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0A0A77-2B2F-CF4F-90A8-2DF680215E40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D23A7A1-6ABA-1F4F-B51C-D1629D9DAF94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="460" windowWidth="20960" windowHeight="25140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21380" yWindow="460" windowWidth="20960" windowHeight="25140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1873</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -732,14 +740,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1873"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1380" workbookViewId="0">
-      <selection activeCell="C1407" sqref="C1407"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.1640625" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
